--- a/Appendix-B/Sample data/p7.xlsx
+++ b/Appendix-B/Sample data/p7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Participants data/Individual dataset/Individual dataset - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Appendix/Appendix-B/Sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{3BCB6367-9F3C-470B-974A-86DD62D30A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DCC89C-34E4-47FD-89E8-FA3A8BCD4137}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{017F3339-E707-4EAC-ACC3-83D0F1E8B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{223D19B1-EEED-43AB-A81A-3A611C1B3E34}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Transaktionen" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaktionen!$A$1:$H$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaktionen!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,11 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="208">
   <si>
     <t>[NULL]</t>
   </si>
   <si>
+    <t>Esso</t>
+  </si>
+  <si>
     <t>2024-06-24-13.10.30.000000</t>
   </si>
   <si>
@@ -56,15 +59,15 @@
     <t>2024-06-25-09.31.22.000000</t>
   </si>
   <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
     <t>TRANSAKTIONSDATUM</t>
   </si>
   <si>
     <t>ARTIKELCODE</t>
   </si>
   <si>
-    <t>ARTIKELNUMMER</t>
-  </si>
-  <si>
     <t>ARTIKELBESCHREIBUNG</t>
   </si>
   <si>
@@ -74,10 +77,7 @@
     <t>INCENTIVIERTER_UMSATZ</t>
   </si>
   <si>
-    <t>SKU_DISCOUNTABLE_VALUE</t>
-  </si>
-  <si>
-    <t>STEUERSATZ</t>
+    <t>EDEKA Nordbayern-Sachsen-Thüringen</t>
   </si>
   <si>
     <t>2024-08-01-14.24.17.000000</t>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>FRITZ LIMO 0,33L</t>
+  </si>
+  <si>
+    <t>Marktkauf Nordbayern-Sachsen-Thüringen</t>
   </si>
   <si>
     <t>2024-05-31-14.44.14.000000</t>
@@ -1033,54 +1036,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7256B7F1-E035-4C64-88DD-9CFF6C9F643B}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4311501698204</v>
       </c>
       <c r="C2" s="2">
         <v>4311501698204</v>
@@ -1094,19 +1091,13 @@
       <c r="F2">
         <v>179</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4014400904277</v>
       </c>
       <c r="C3" s="2">
         <v>4014400904277</v>
@@ -1120,19 +1111,13 @@
       <c r="F3">
         <v>189</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8720182432353</v>
       </c>
       <c r="C4" s="2">
         <v>8720182432353</v>
@@ -1146,19 +1131,13 @@
       <c r="F4">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4311596421947</v>
       </c>
       <c r="C5" s="2">
         <v>4311596421947</v>
@@ -1172,19 +1151,13 @@
       <c r="F5">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4311501762035</v>
       </c>
       <c r="C6" s="2">
         <v>4311501762035</v>
@@ -1198,19 +1171,13 @@
       <c r="F6">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4311596413232</v>
       </c>
       <c r="C7" s="2">
         <v>4311596413232</v>
@@ -1224,19 +1191,13 @@
       <c r="F7">
         <v>278</v>
       </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4311501385807</v>
       </c>
       <c r="C8" s="2">
         <v>4311501385807</v>
@@ -1250,22 +1211,16 @@
       <c r="F8">
         <v>179</v>
       </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>5201224800116</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4260639085649</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1276,19 +1231,13 @@
       <c r="F9">
         <v>229</v>
       </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2526</v>
       </c>
       <c r="C10" s="2">
         <v>2526</v>
@@ -1302,19 +1251,13 @@
       <c r="F10">
         <v>594</v>
       </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2618</v>
       </c>
       <c r="C11" s="2">
         <v>2618</v>
@@ -1328,22 +1271,16 @@
       <c r="F11">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1354,19 +1291,13 @@
       <c r="F12" s="1">
         <v>7500</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4311501657591</v>
       </c>
       <c r="C13" s="2">
         <v>4311501657591</v>
@@ -1380,19 +1311,13 @@
       <c r="F13">
         <v>699</v>
       </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4311501013670</v>
       </c>
       <c r="C14" s="2">
         <v>4311501013670</v>
@@ -1406,19 +1331,13 @@
       <c r="F14">
         <v>219</v>
       </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4311501385807</v>
       </c>
       <c r="C15" s="2">
         <v>4311501385807</v>
@@ -1432,22 +1351,16 @@
       <c r="F15">
         <v>179</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1458,19 +1371,13 @@
       <c r="F16" s="1">
         <v>5540</v>
       </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="2">
-        <v>35241</v>
       </c>
       <c r="C17" s="2">
         <v>35241</v>
@@ -1484,19 +1391,13 @@
       <c r="F17">
         <v>45</v>
       </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="2">
-        <v>126678</v>
       </c>
       <c r="C18" s="2">
         <v>126678</v>
@@ -1510,19 +1411,13 @@
       <c r="F18">
         <v>428</v>
       </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4311501036976</v>
       </c>
       <c r="C19" s="2">
         <v>4311501036976</v>
@@ -1536,19 +1431,13 @@
       <c r="F19">
         <v>299</v>
       </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42333</v>
       </c>
       <c r="C20" s="2">
         <v>42333</v>
@@ -1562,19 +1451,13 @@
       <c r="F20">
         <v>55</v>
       </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="2">
-        <v>41728</v>
       </c>
       <c r="C21" s="2">
         <v>41728</v>
@@ -1588,19 +1471,13 @@
       <c r="F21">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4311501631287</v>
       </c>
       <c r="C22" s="2">
         <v>4311501631287</v>
@@ -1614,22 +1491,16 @@
       <c r="F22">
         <v>75</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1640,22 +1511,16 @@
       <c r="F23" s="1">
         <v>11083</v>
       </c>
-      <c r="G23" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1666,19 +1531,13 @@
       <c r="F24" s="1">
         <v>1799</v>
       </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>126538</v>
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>126538</v>
@@ -1692,19 +1551,13 @@
       <c r="F25">
         <v>192</v>
       </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4314338640132</v>
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <v>4314338640132</v>
@@ -1718,19 +1571,13 @@
       <c r="F26">
         <v>549</v>
       </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2902</v>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <v>2902</v>
@@ -1744,19 +1591,13 @@
       <c r="F27">
         <v>69</v>
       </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5707196180718</v>
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>5707196180718</v>
@@ -1770,19 +1611,13 @@
       <c r="F28" s="1">
         <v>1198</v>
       </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>17055</v>
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>17055</v>
@@ -1796,19 +1631,13 @@
       <c r="F29">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>40995</v>
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <v>40995</v>
@@ -1822,19 +1651,13 @@
       <c r="F30">
         <v>135</v>
       </c>
-      <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>15919</v>
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>15919</v>
@@ -1848,22 +1671,16 @@
       <c r="F31">
         <v>98</v>
       </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -1874,19 +1691,13 @@
       <c r="F32">
         <v>551</v>
       </c>
-      <c r="G32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
         <v>47</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4012238962087</v>
       </c>
       <c r="C33" s="2">
         <v>4012238962087</v>
@@ -1900,19 +1711,13 @@
       <c r="F33">
         <v>284</v>
       </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4311501031674</v>
       </c>
       <c r="C34" s="2">
         <v>4311501031674</v>
@@ -1926,22 +1731,16 @@
       <c r="F34">
         <v>134</v>
       </c>
-      <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>196128</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2518</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
@@ -1952,19 +1751,13 @@
       <c r="F35">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4311527265558</v>
       </c>
       <c r="C36" s="2">
         <v>4311527265558</v>
@@ -1978,19 +1771,13 @@
       <c r="F36">
         <v>149</v>
       </c>
-      <c r="G36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" s="2">
-        <v>90357350</v>
       </c>
       <c r="C37" s="2">
         <v>90357350</v>
@@ -2004,19 +1791,13 @@
       <c r="F37">
         <v>99</v>
       </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>47</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4311532015308</v>
       </c>
       <c r="C38" s="2">
         <v>4311532015308</v>
@@ -2030,22 +1811,16 @@
       <c r="F38">
         <v>474</v>
       </c>
-      <c r="G38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>196019</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2005</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -2056,22 +1831,16 @@
       <c r="F39">
         <v>123</v>
       </c>
-      <c r="G39" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
-        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2082,22 +1851,16 @@
       <c r="F40" s="1">
         <v>5002</v>
       </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
-        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2108,22 +1871,16 @@
       <c r="F41" s="1">
         <v>4235</v>
       </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -2134,19 +1891,13 @@
       <c r="F42" s="1">
         <v>4237</v>
       </c>
-      <c r="G42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
         <v>58</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4311501009208</v>
       </c>
       <c r="C43" s="2">
         <v>4311501009208</v>
@@ -2160,19 +1911,13 @@
       <c r="F43">
         <v>37</v>
       </c>
-      <c r="G43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4000512365013</v>
       </c>
       <c r="C44" s="2">
         <v>4000512365013</v>
@@ -2186,19 +1931,13 @@
       <c r="F44">
         <v>279</v>
       </c>
-      <c r="G44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4311501009192</v>
       </c>
       <c r="C45" s="2">
         <v>4311501009192</v>
@@ -2212,19 +1951,13 @@
       <c r="F45">
         <v>37</v>
       </c>
-      <c r="G45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
         <v>58</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4311532338025</v>
       </c>
       <c r="C46" s="2">
         <v>4311532338025</v>
@@ -2238,19 +1971,13 @@
       <c r="F46">
         <v>149</v>
       </c>
-      <c r="G46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4311501031674</v>
       </c>
       <c r="C47" s="2">
         <v>4311501031674</v>
@@ -2264,19 +1991,13 @@
       <c r="F47">
         <v>149</v>
       </c>
-      <c r="G47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
-      </c>
-      <c r="B48" s="2">
-        <v>7501017005925</v>
       </c>
       <c r="C48" s="2">
         <v>7501017005925</v>
@@ -2290,19 +2011,13 @@
       <c r="F48">
         <v>429</v>
       </c>
-      <c r="G48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4250749302224</v>
       </c>
       <c r="C49" s="2">
         <v>4250749302224</v>
@@ -2316,19 +2031,13 @@
       <c r="F49">
         <v>30</v>
       </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4000832912508</v>
       </c>
       <c r="C50" s="2">
         <v>4000832912508</v>
@@ -2342,19 +2051,13 @@
       <c r="F50">
         <v>119</v>
       </c>
-      <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
         <v>58</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4008577006001</v>
       </c>
       <c r="C51" s="2">
         <v>4008577006001</v>
@@ -2368,19 +2071,13 @@
       <c r="F51">
         <v>349</v>
       </c>
-      <c r="G51" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4042258943087</v>
       </c>
       <c r="C52" s="2">
         <v>4042258943087</v>
@@ -2394,19 +2091,13 @@
       <c r="F52">
         <v>479</v>
       </c>
-      <c r="G52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4260133930216</v>
       </c>
       <c r="C53" s="2">
         <v>4260133930216</v>
@@ -2420,19 +2111,13 @@
       <c r="F53">
         <v>529</v>
       </c>
-      <c r="G53" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4311501717592</v>
       </c>
       <c r="C54" s="2">
         <v>4311501717592</v>
@@ -2446,22 +2131,16 @@
       <c r="F54">
         <v>169</v>
       </c>
-      <c r="G54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C55" s="2">
         <v>196019</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2005</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
@@ -2472,19 +2151,13 @@
       <c r="F55">
         <v>126</v>
       </c>
-      <c r="G55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4260107220060</v>
       </c>
       <c r="C56" s="2">
         <v>4260107220060</v>
@@ -2498,25 +2171,19 @@
       <c r="F56">
         <v>250</v>
       </c>
-      <c r="G56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="2">
-        <v>4011900656019</v>
+      <c r="B57" t="s">
+        <v>71</v>
       </c>
       <c r="C57" s="2">
         <v>4011900656019</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
@@ -2524,25 +2191,19 @@
       <c r="F57">
         <v>299</v>
       </c>
-      <c r="G57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="2">
         <v>5201224530051</v>
       </c>
-      <c r="C58" s="2">
-        <v>4260228172576</v>
-      </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -2550,25 +2211,19 @@
       <c r="F58">
         <v>249</v>
       </c>
-      <c r="G58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="2">
-        <v>20110</v>
+      <c r="B59" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="2">
         <v>20110</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -2576,25 +2231,19 @@
       <c r="F59">
         <v>100</v>
       </c>
-      <c r="G59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="2">
-        <v>4311532447222</v>
+      <c r="B60" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="2">
         <v>4311532447222</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -2602,25 +2251,19 @@
       <c r="F60">
         <v>199</v>
       </c>
-      <c r="G60" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="2">
-        <v>4311501601631</v>
+      <c r="B61" t="s">
+        <v>71</v>
       </c>
       <c r="C61" s="2">
         <v>4311501601631</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -2628,25 +2271,19 @@
       <c r="F61">
         <v>85</v>
       </c>
-      <c r="G61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="2">
-        <v>40084794</v>
+      <c r="B62" t="s">
+        <v>71</v>
       </c>
       <c r="C62" s="2">
         <v>40084794</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -2654,19 +2291,13 @@
       <c r="F62">
         <v>143</v>
       </c>
-      <c r="G62" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="2">
-        <v>4311501698204</v>
+      <c r="B63" t="s">
+        <v>71</v>
       </c>
       <c r="C63" s="2">
         <v>4311501698204</v>
@@ -2680,25 +2311,19 @@
       <c r="F63">
         <v>179</v>
       </c>
-      <c r="G63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="2">
-        <v>4032549018082</v>
+      <c r="B64" t="s">
+        <v>71</v>
       </c>
       <c r="C64" s="2">
         <v>4032549018082</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -2706,25 +2331,19 @@
       <c r="F64">
         <v>199</v>
       </c>
-      <c r="G64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="2">
-        <v>4032549018105</v>
+      <c r="B65" t="s">
+        <v>71</v>
       </c>
       <c r="C65" s="2">
         <v>4032549018105</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2732,25 +2351,19 @@
       <c r="F65">
         <v>199</v>
       </c>
-      <c r="G65" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2">
-        <v>4260133930087</v>
+      <c r="B66" t="s">
+        <v>71</v>
       </c>
       <c r="C66" s="2">
         <v>4260133930087</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -2758,25 +2371,19 @@
       <c r="F66">
         <v>369</v>
       </c>
-      <c r="G66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2">
-        <v>4311596447510</v>
+      <c r="B67" t="s">
+        <v>71</v>
       </c>
       <c r="C67" s="2">
         <v>4311596447510</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -2784,25 +2391,19 @@
       <c r="F67">
         <v>99</v>
       </c>
-      <c r="G67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="2">
-        <v>4008400551920</v>
+      <c r="B68" t="s">
+        <v>71</v>
       </c>
       <c r="C68" s="2">
         <v>4008400551920</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -2810,25 +2411,19 @@
       <c r="F68">
         <v>140</v>
       </c>
-      <c r="G68" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="2">
-        <v>8719128117249</v>
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
       </c>
       <c r="C69" s="2">
         <v>8719128117249</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -2836,25 +2431,19 @@
       <c r="F69">
         <v>549</v>
       </c>
-      <c r="G69" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="2">
-        <v>4311501759745</v>
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
       </c>
       <c r="C70" s="2">
         <v>4311501759745</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -2862,25 +2451,19 @@
       <c r="F70">
         <v>229</v>
       </c>
-      <c r="G70" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="2">
-        <v>4311501672341</v>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="2">
         <v>4311501672341</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -2888,25 +2471,19 @@
       <c r="F71">
         <v>279</v>
       </c>
-      <c r="G71" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="2">
-        <v>4311501759806</v>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
       </c>
       <c r="C72" s="2">
         <v>4311501759806</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -2914,25 +2491,19 @@
       <c r="F72">
         <v>229</v>
       </c>
-      <c r="G72" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="2">
-        <v>4311527615391</v>
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
       </c>
       <c r="C73" s="2">
         <v>4311527615391</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -2940,25 +2511,19 @@
       <c r="F73">
         <v>399</v>
       </c>
-      <c r="G73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="2">
-        <v>4311596446858</v>
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
       </c>
       <c r="C74" s="2">
         <v>4311596446858</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -2966,25 +2531,19 @@
       <c r="F74">
         <v>279</v>
       </c>
-      <c r="G74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4017434002575</v>
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
       </c>
       <c r="C75" s="2">
         <v>4017434002575</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -2992,25 +2551,19 @@
       <c r="F75">
         <v>85</v>
       </c>
-      <c r="G75" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="2">
-        <v>4000512463429</v>
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
       </c>
       <c r="C76" s="2">
         <v>4000512463429</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -3018,25 +2571,19 @@
       <c r="F76">
         <v>107</v>
       </c>
-      <c r="G76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="2">
-        <v>4053091082413</v>
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
       </c>
       <c r="C77" s="2">
         <v>4053091082413</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -3044,25 +2591,19 @@
       <c r="F77">
         <v>299</v>
       </c>
-      <c r="G77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="2">
-        <v>4311532229477</v>
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
       </c>
       <c r="C78" s="2">
         <v>4311532229477</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
@@ -3070,25 +2611,19 @@
       <c r="F78">
         <v>299</v>
       </c>
-      <c r="G78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="2">
-        <v>4311501759745</v>
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
       </c>
       <c r="C79" s="2">
         <v>4311501759745</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -3096,25 +2631,19 @@
       <c r="F79">
         <v>229</v>
       </c>
-      <c r="G79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="2">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="2">
         <v>2301</v>
       </c>
-      <c r="C80" s="2">
-        <v>2281500000000</v>
-      </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -3122,25 +2651,19 @@
       <c r="F80">
         <v>943</v>
       </c>
-      <c r="G80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4311501627150</v>
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
       </c>
       <c r="C81" s="2">
         <v>4311501627150</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -3148,25 +2671,19 @@
       <c r="F81">
         <v>229</v>
       </c>
-      <c r="G81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="2">
-        <v>4311532044261</v>
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
       </c>
       <c r="C82" s="2">
         <v>4311532044261</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -3174,25 +2691,19 @@
       <c r="F82">
         <v>329</v>
       </c>
-      <c r="G82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="2">
-        <v>4030387760859</v>
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
       </c>
       <c r="C83" s="2">
         <v>4030387760859</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -3200,25 +2711,19 @@
       <c r="F83">
         <v>159</v>
       </c>
-      <c r="G83" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4032549023802</v>
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
       </c>
       <c r="C84" s="2">
         <v>4032549023802</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -3226,25 +2731,19 @@
       <c r="F84">
         <v>329</v>
       </c>
-      <c r="G84" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="2">
-        <v>4311501495407</v>
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
       </c>
       <c r="C85" s="2">
         <v>4311501495407</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
@@ -3252,25 +2751,19 @@
       <c r="F85">
         <v>130</v>
       </c>
-      <c r="G85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="2">
-        <v>3046920021203</v>
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
       </c>
       <c r="C86" s="2">
         <v>3046920021203</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -3278,25 +2771,19 @@
       <c r="F86">
         <v>269</v>
       </c>
-      <c r="G86" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="2">
-        <v>4032549025356</v>
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
       </c>
       <c r="C87" s="2">
         <v>4032549025356</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -3304,25 +2791,19 @@
       <c r="F87">
         <v>279</v>
       </c>
-      <c r="G87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="2">
-        <v>4311596459438</v>
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
       </c>
       <c r="C88" s="2">
         <v>4311596459438</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -3330,25 +2811,19 @@
       <c r="F88">
         <v>249</v>
       </c>
-      <c r="G88" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="2">
-        <v>4311501703588</v>
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
       </c>
       <c r="C89" s="2">
         <v>4311501703588</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -3356,25 +2831,19 @@
       <c r="F89">
         <v>129</v>
       </c>
-      <c r="G89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="2">
-        <v>4311501797266</v>
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
       </c>
       <c r="C90" s="2">
         <v>4311501797266</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -3382,25 +2851,19 @@
       <c r="F90">
         <v>229</v>
       </c>
-      <c r="G90" t="s">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="2">
-        <v>4311501796535</v>
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
       </c>
       <c r="C91" s="2">
         <v>4311501796535</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -3408,25 +2871,19 @@
       <c r="F91">
         <v>119</v>
       </c>
-      <c r="G91" t="s">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2">
-        <v>4311501631294</v>
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
       </c>
       <c r="C92" s="2">
         <v>4311501631294</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -3434,25 +2891,19 @@
       <c r="F92">
         <v>65</v>
       </c>
-      <c r="G92" t="s">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="2">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2">
         <v>4003721010965</v>
       </c>
-      <c r="C93" s="2">
-        <v>4003721020261</v>
-      </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -3460,25 +2911,19 @@
       <c r="F93">
         <v>149</v>
       </c>
-      <c r="G93" t="s">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="2">
-        <v>4311501041727</v>
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
       </c>
       <c r="C94" s="2">
         <v>4311501041727</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
@@ -3486,25 +2931,19 @@
       <c r="F94">
         <v>199</v>
       </c>
-      <c r="G94" t="s">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="2">
-        <v>4013200882723</v>
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>4013200882723</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -3512,25 +2951,19 @@
       <c r="F95">
         <v>379</v>
       </c>
-      <c r="G95" t="s">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="2">
-        <v>4045357010605</v>
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
       </c>
       <c r="C96" s="2">
         <v>4045357010605</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -3538,25 +2971,19 @@
       <c r="F96">
         <v>279</v>
       </c>
-      <c r="G96" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" s="2">
-        <v>4260000931124</v>
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
       </c>
       <c r="C97" s="2">
         <v>4260000931124</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
@@ -3564,25 +2991,19 @@
       <c r="F97">
         <v>199</v>
       </c>
-      <c r="G97" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" s="2">
-        <v>4260133930223</v>
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
       </c>
       <c r="C98" s="2">
         <v>4260133930223</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -3590,25 +3011,19 @@
       <c r="F98">
         <v>349</v>
       </c>
-      <c r="G98" t="s">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="2">
-        <v>4009932004533</v>
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
       </c>
       <c r="C99" s="2">
         <v>4009932004533</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -3616,25 +3031,19 @@
       <c r="F99">
         <v>479</v>
       </c>
-      <c r="G99" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100" s="2">
-        <v>4101530001263</v>
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
       </c>
       <c r="C100" s="2">
         <v>4101530001263</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
@@ -3642,25 +3051,19 @@
       <c r="F100">
         <v>35</v>
       </c>
-      <c r="G100" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="2">
-        <v>4311532482827</v>
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
       </c>
       <c r="C101" s="2">
         <v>4311532482827</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -3668,25 +3071,19 @@
       <c r="F101">
         <v>199</v>
       </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" s="2">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="2">
         <v>8034063731061</v>
       </c>
-      <c r="C102" s="2">
-        <v>8033803480016</v>
-      </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -3694,19 +3091,13 @@
       <c r="F102">
         <v>199</v>
       </c>
-      <c r="G102" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="2">
-        <v>4042258943087</v>
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
       </c>
       <c r="C103" s="2">
         <v>4042258943087</v>
@@ -3720,25 +3111,19 @@
       <c r="F103">
         <v>479</v>
       </c>
-      <c r="G103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" s="2">
-        <v>4045357010605</v>
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
       </c>
       <c r="C104" s="2">
         <v>4045357010605</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
@@ -3746,25 +3131,19 @@
       <c r="F104">
         <v>279</v>
       </c>
-      <c r="G104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105" s="2">
-        <v>4311527631551</v>
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
       </c>
       <c r="C105" s="2">
         <v>4311527631551</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
@@ -3772,25 +3151,19 @@
       <c r="F105">
         <v>249</v>
       </c>
-      <c r="G105" t="s">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" s="2">
-        <v>4082100005044</v>
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
       </c>
       <c r="C106" s="2">
         <v>4082100005044</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
@@ -3798,25 +3171,19 @@
       <c r="F106">
         <v>178</v>
       </c>
-      <c r="G106" t="s">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4311501001424</v>
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
       </c>
       <c r="C107" s="2">
         <v>4311501001424</v>
       </c>
       <c r="D107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -3824,25 +3191,19 @@
       <c r="F107">
         <v>179</v>
       </c>
-      <c r="G107" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="2">
-        <v>4101530001218</v>
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>116</v>
       </c>
       <c r="C108" s="2">
         <v>4101530001218</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
@@ -3850,25 +3211,19 @@
       <c r="F108">
         <v>35</v>
       </c>
-      <c r="G108" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="2">
-        <v>4311501043271</v>
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
       </c>
       <c r="C109" s="2">
         <v>4311501043271</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -3876,22 +3231,16 @@
       <c r="F109">
         <v>169</v>
       </c>
-      <c r="G109" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H109">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2">
-        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>25</v>
@@ -3902,25 +3251,19 @@
       <c r="F110" s="1">
         <v>7394</v>
       </c>
-      <c r="G110" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="2">
-        <v>4104420018426</v>
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
       </c>
       <c r="C111" s="2">
         <v>4104420018426</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E111" t="s">
         <v>15</v>
@@ -3928,25 +3271,19 @@
       <c r="F111">
         <v>299</v>
       </c>
-      <c r="G111" t="s">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" s="2">
-        <v>8000270013221</v>
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
       </c>
       <c r="C112" s="2">
         <v>8000270013221</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -3954,25 +3291,19 @@
       <c r="F112">
         <v>75</v>
       </c>
-      <c r="G112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="2">
-        <v>4311501762073</v>
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
       </c>
       <c r="C113" s="2">
         <v>4311501762073</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -3980,25 +3311,19 @@
       <c r="F113">
         <v>179</v>
       </c>
-      <c r="G113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" s="2">
-        <v>40554433</v>
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
       </c>
       <c r="C114" s="2">
         <v>40554433</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -4006,19 +3331,13 @@
       <c r="F114">
         <v>55</v>
       </c>
-      <c r="G114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" s="2">
-        <v>2019</v>
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
       </c>
       <c r="C115" s="2">
         <v>2019</v>
@@ -4032,25 +3351,19 @@
       <c r="F115">
         <v>62</v>
       </c>
-      <c r="G115" t="s">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4311501490426</v>
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
       </c>
       <c r="C116" s="2">
         <v>4311501490426</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
@@ -4058,25 +3371,19 @@
       <c r="F116">
         <v>198</v>
       </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" s="2">
-        <v>4311501601662</v>
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
       </c>
       <c r="C117" s="2">
         <v>4311501601662</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -4084,25 +3391,19 @@
       <c r="F117">
         <v>95</v>
       </c>
-      <c r="G117" t="s">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" s="2">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="2">
         <v>4055379922534</v>
       </c>
-      <c r="C118" s="2">
-        <v>4260239120504</v>
-      </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
         <v>15</v>
@@ -4110,25 +3411,19 @@
       <c r="F118">
         <v>199</v>
       </c>
-      <c r="G118" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="2">
-        <v>8000407025967</v>
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
       </c>
       <c r="C119" s="2">
         <v>8000407025967</v>
       </c>
       <c r="D119" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
@@ -4136,25 +3431,19 @@
       <c r="F119">
         <v>159</v>
       </c>
-      <c r="G119" t="s">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="2">
-        <v>4311501739310</v>
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
       </c>
       <c r="C120" s="2">
         <v>4311501739310</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
@@ -4162,25 +3451,19 @@
       <c r="F120">
         <v>199</v>
       </c>
-      <c r="G120" t="s">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="2">
-        <v>4311501045794</v>
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
       </c>
       <c r="C121" s="2">
         <v>4311501045794</v>
       </c>
       <c r="D121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
@@ -4188,25 +3471,19 @@
       <c r="F121">
         <v>189</v>
       </c>
-      <c r="G121" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="2">
-        <v>2002</v>
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
       </c>
       <c r="C122" s="2">
         <v>2002</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -4214,25 +3491,19 @@
       <c r="F122">
         <v>67</v>
       </c>
-      <c r="G122" t="s">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="2">
-        <v>4311501438664</v>
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
       </c>
       <c r="C123" s="2">
         <v>4311501438664</v>
       </c>
       <c r="D123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -4240,19 +3511,13 @@
       <c r="F123">
         <v>219</v>
       </c>
-      <c r="G123" t="s">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="2">
-        <v>2902</v>
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
       </c>
       <c r="C124" s="2">
         <v>2902</v>
@@ -4266,25 +3531,19 @@
       <c r="F124">
         <v>53</v>
       </c>
-      <c r="G124" t="s">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="2">
-        <v>4311501770085</v>
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
       </c>
       <c r="C125" s="2">
         <v>4311501770085</v>
       </c>
       <c r="D125" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -4292,25 +3551,19 @@
       <c r="F125">
         <v>149</v>
       </c>
-      <c r="G125" t="s">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2">
-        <v>4311501601631</v>
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
       </c>
       <c r="C126" s="2">
         <v>4311501601631</v>
       </c>
       <c r="D126" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -4318,25 +3571,19 @@
       <c r="F126">
         <v>85</v>
       </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" s="2">
-        <v>4311501359518</v>
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
       </c>
       <c r="C127" s="2">
         <v>4311501359518</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -4344,25 +3591,19 @@
       <c r="F127">
         <v>169</v>
       </c>
-      <c r="G127" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" s="2">
-        <v>2091</v>
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
       </c>
       <c r="C128" s="2">
         <v>2091</v>
       </c>
       <c r="D128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
@@ -4370,25 +3611,19 @@
       <c r="F128">
         <v>47</v>
       </c>
-      <c r="G128" t="s">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="2">
-        <v>2320</v>
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
       </c>
       <c r="C129" s="2">
         <v>2320</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
@@ -4396,25 +3631,19 @@
       <c r="F129">
         <v>99</v>
       </c>
-      <c r="G129" t="s">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="2">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="2">
         <v>134045</v>
       </c>
-      <c r="C130" s="2">
-        <v>2225820000000</v>
-      </c>
       <c r="D130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
@@ -4422,25 +3651,19 @@
       <c r="F130">
         <v>264</v>
       </c>
-      <c r="G130" t="s">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>124</v>
-      </c>
-      <c r="B131" s="2">
-        <v>4311596455454</v>
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>125</v>
       </c>
       <c r="C131" s="2">
         <v>4311596455454</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -4448,25 +3671,19 @@
       <c r="F131">
         <v>109</v>
       </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>124</v>
-      </c>
-      <c r="B132" s="2">
-        <v>4311501645369</v>
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>125</v>
       </c>
       <c r="C132" s="2">
         <v>4311501645369</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
@@ -4474,22 +3691,16 @@
       <c r="F132">
         <v>189</v>
       </c>
-      <c r="G132" t="s">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H132">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="2">
-        <v>21</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -4500,25 +3711,19 @@
       <c r="F133" s="1">
         <v>1730</v>
       </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="2">
-        <v>4038745603718</v>
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
       </c>
       <c r="C134" s="2">
         <v>4038745603718</v>
       </c>
       <c r="D134" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
@@ -4526,25 +3731,19 @@
       <c r="F134">
         <v>149</v>
       </c>
-      <c r="G134" t="s">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" s="2">
-        <v>4004980513006</v>
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>145</v>
       </c>
       <c r="C135" s="2">
         <v>4004980513006</v>
       </c>
       <c r="D135" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
@@ -4552,25 +3751,19 @@
       <c r="F135">
         <v>159</v>
       </c>
-      <c r="G135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136" s="2">
-        <v>4002971301205</v>
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
       </c>
       <c r="C136" s="2">
         <v>4002971301205</v>
       </c>
       <c r="D136" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -4578,25 +3771,19 @@
       <c r="F136">
         <v>95</v>
       </c>
-      <c r="G136" t="s">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="2">
-        <v>4045357010605</v>
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
       </c>
       <c r="C137" s="2">
         <v>4045357010605</v>
       </c>
       <c r="D137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
@@ -4604,25 +3791,19 @@
       <c r="F137">
         <v>279</v>
       </c>
-      <c r="G137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138" s="2">
-        <v>4311532447222</v>
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
       </c>
       <c r="C138" s="2">
         <v>4311532447222</v>
       </c>
       <c r="D138" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -4630,25 +3811,19 @@
       <c r="F138">
         <v>199</v>
       </c>
-      <c r="G138" t="s">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="2">
-        <v>4260093591168</v>
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>149</v>
       </c>
       <c r="C139" s="2">
         <v>4260093591168</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E139" t="s">
         <v>15</v>
@@ -4656,25 +3831,19 @@
       <c r="F139">
         <v>129</v>
       </c>
-      <c r="G139" t="s">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140" s="2">
-        <v>4002971040500</v>
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
       </c>
       <c r="C140" s="2">
         <v>4002971040500</v>
       </c>
       <c r="D140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
         <v>15</v>
@@ -4682,25 +3851,19 @@
       <c r="F140">
         <v>33</v>
       </c>
-      <c r="G140" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" s="2">
-        <v>4260107220015</v>
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
       </c>
       <c r="C141" s="2">
         <v>4260107220015</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
@@ -4708,25 +3871,19 @@
       <c r="F141">
         <v>125</v>
       </c>
-      <c r="G141" t="s">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="2">
-        <v>4002971011203</v>
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
       </c>
       <c r="C142" s="2">
         <v>4002971011203</v>
       </c>
       <c r="D142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s">
         <v>15</v>
@@ -4734,25 +3891,19 @@
       <c r="F142">
         <v>33</v>
       </c>
-      <c r="G142" t="s">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143" s="2">
-        <v>4311501011799</v>
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
       </c>
       <c r="C143" s="2">
         <v>4311501011799</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E143" t="s">
         <v>15</v>
@@ -4760,25 +3911,19 @@
       <c r="F143">
         <v>219</v>
       </c>
-      <c r="G143" t="s">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" s="2">
-        <v>9008700120258</v>
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
       </c>
       <c r="C144" s="2">
         <v>9008700120258</v>
       </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
@@ -4786,25 +3931,19 @@
       <c r="F144">
         <v>249</v>
       </c>
-      <c r="G144" t="s">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="2">
-        <v>4002971067309</v>
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
       </c>
       <c r="C145" s="2">
         <v>4002971067309</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -4812,25 +3951,19 @@
       <c r="F145">
         <v>33</v>
       </c>
-      <c r="G145" t="s">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" s="2">
-        <v>4002971014105</v>
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
       </c>
       <c r="C146" s="2">
         <v>4002971014105</v>
       </c>
       <c r="D146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E146" t="s">
         <v>15</v>
@@ -4838,25 +3971,19 @@
       <c r="F146">
         <v>33</v>
       </c>
-      <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" s="2">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="2">
         <v>5214001377282</v>
       </c>
-      <c r="C147" s="2">
-        <v>4251003524321</v>
-      </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
@@ -4864,25 +3991,19 @@
       <c r="F147">
         <v>299</v>
       </c>
-      <c r="G147" t="s">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" s="2">
-        <v>4002971017601</v>
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>4002971017601</v>
       </c>
       <c r="D148" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E148" t="s">
         <v>15</v>
@@ -4890,25 +4011,19 @@
       <c r="F148">
         <v>33</v>
       </c>
-      <c r="G148" t="s">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="2">
-        <v>4014400931280</v>
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
       </c>
       <c r="C149" s="2">
         <v>4014400931280</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -4916,25 +4031,19 @@
       <c r="F149">
         <v>229</v>
       </c>
-      <c r="G149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>159</v>
-      </c>
-      <c r="B150" s="2">
-        <v>4003586102133</v>
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
       </c>
       <c r="C150" s="2">
         <v>4003586102133</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -4942,25 +4051,19 @@
       <c r="F150">
         <v>199</v>
       </c>
-      <c r="G150" t="s">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="2">
-        <v>4017434002599</v>
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
       </c>
       <c r="C151" s="2">
         <v>4017434002599</v>
       </c>
       <c r="D151" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -4968,25 +4071,19 @@
       <c r="F151">
         <v>85</v>
       </c>
-      <c r="G151" t="s">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152" s="2">
-        <v>4002971014105</v>
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>164</v>
       </c>
       <c r="C152" s="2">
         <v>4002971014105</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -4994,25 +4091,19 @@
       <c r="F152">
         <v>33</v>
       </c>
-      <c r="G152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>163</v>
-      </c>
-      <c r="B153" s="2">
-        <v>4045357010605</v>
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
       </c>
       <c r="C153" s="2">
         <v>4045357010605</v>
       </c>
       <c r="D153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -5020,25 +4111,19 @@
       <c r="F153">
         <v>279</v>
       </c>
-      <c r="G153" t="s">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154" s="2">
-        <v>4251003524000</v>
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>164</v>
       </c>
       <c r="C154" s="2">
         <v>4251003524000</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
@@ -5046,25 +4131,19 @@
       <c r="F154">
         <v>199</v>
       </c>
-      <c r="G154" t="s">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155" s="2">
-        <v>4002971067309</v>
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
       </c>
       <c r="C155" s="2">
         <v>4002971067309</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -5072,25 +4151,19 @@
       <c r="F155">
         <v>33</v>
       </c>
-      <c r="G155" t="s">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" s="2">
-        <v>4017434003466</v>
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>164</v>
       </c>
       <c r="C156" s="2">
         <v>4017434003466</v>
       </c>
       <c r="D156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
@@ -5098,25 +4171,19 @@
       <c r="F156">
         <v>85</v>
       </c>
-      <c r="G156" t="s">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>163</v>
-      </c>
-      <c r="B157" s="2">
-        <v>4002971067200</v>
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
       </c>
       <c r="C157" s="2">
         <v>4002971067200</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
@@ -5124,22 +4191,16 @@
       <c r="F157">
         <v>33</v>
       </c>
-      <c r="G157" t="s">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H157">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="2">
-        <v>21</v>
       </c>
       <c r="D158" t="s">
         <v>25</v>
@@ -5150,19 +4211,13 @@
       <c r="F158" s="1">
         <v>5785</v>
       </c>
-      <c r="G158" t="s">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159" s="2">
-        <v>4012238922036</v>
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
       </c>
       <c r="C159" s="2">
         <v>4012238922036</v>
@@ -5176,25 +4231,19 @@
       <c r="F159">
         <v>100</v>
       </c>
-      <c r="G159" t="s">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="2">
-        <v>4003586104885</v>
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>168</v>
       </c>
       <c r="C160" s="2">
         <v>4003586104885</v>
       </c>
       <c r="D160" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -5202,25 +4251,19 @@
       <c r="F160">
         <v>149</v>
       </c>
-      <c r="G160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>167</v>
-      </c>
-      <c r="B161" s="2">
-        <v>4101530001812</v>
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
       </c>
       <c r="C161" s="2">
         <v>4101530001812</v>
       </c>
       <c r="D161" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -5228,25 +4271,19 @@
       <c r="F161">
         <v>299</v>
       </c>
-      <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" s="2">
-        <v>4017434002575</v>
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>168</v>
       </c>
       <c r="C162" s="2">
         <v>4017434002575</v>
       </c>
       <c r="D162" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -5254,25 +4291,19 @@
       <c r="F162">
         <v>85</v>
       </c>
-      <c r="G162" t="s">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>167</v>
-      </c>
-      <c r="B163" s="2">
-        <v>4001475214509</v>
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>168</v>
       </c>
       <c r="C163" s="2">
         <v>4001475214509</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
@@ -5280,25 +4311,19 @@
       <c r="F163">
         <v>429</v>
       </c>
-      <c r="G163" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" s="2">
-        <v>4311527641970</v>
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>172</v>
       </c>
       <c r="C164" s="2">
         <v>4311527641970</v>
       </c>
       <c r="D164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
@@ -5306,25 +4331,19 @@
       <c r="F164">
         <v>299</v>
       </c>
-      <c r="G164" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" s="2">
-        <v>8721800401676</v>
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>172</v>
       </c>
       <c r="C165" s="2">
         <v>8721800401676</v>
       </c>
       <c r="D165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -5332,25 +4351,19 @@
       <c r="F165">
         <v>149</v>
       </c>
-      <c r="G165" t="s">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" s="2">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="2">
         <v>1487435008</v>
       </c>
-      <c r="C166" s="2">
-        <v>2050000062902</v>
-      </c>
       <c r="D166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -5358,25 +4371,19 @@
       <c r="F166">
         <v>91</v>
       </c>
-      <c r="G166" t="s">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>171</v>
-      </c>
-      <c r="B167" s="2">
-        <v>4014400931280</v>
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
       </c>
       <c r="C167" s="2">
         <v>4014400931280</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -5384,25 +4391,19 @@
       <c r="F167">
         <v>229</v>
       </c>
-      <c r="G167" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168" s="2">
-        <v>4017434003466</v>
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
       </c>
       <c r="C168" s="2">
         <v>4017434003466</v>
       </c>
       <c r="D168" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -5410,25 +4411,19 @@
       <c r="F168">
         <v>85</v>
       </c>
-      <c r="G168" t="s">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>171</v>
-      </c>
-      <c r="B169" s="2">
-        <v>4017434002575</v>
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
       </c>
       <c r="C169" s="2">
         <v>4017434002575</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -5436,25 +4431,19 @@
       <c r="F169">
         <v>85</v>
       </c>
-      <c r="G169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" s="2">
-        <v>4048517701986</v>
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
       </c>
       <c r="C170" s="2">
         <v>4048517701986</v>
       </c>
       <c r="D170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
@@ -5462,25 +4451,19 @@
       <c r="F170">
         <v>149</v>
       </c>
-      <c r="G170" t="s">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171" s="2">
-        <v>7613035925489</v>
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
       </c>
       <c r="C171" s="2">
         <v>7613035925489</v>
       </c>
       <c r="D171" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -5488,25 +4471,19 @@
       <c r="F171">
         <v>338</v>
       </c>
-      <c r="G171" t="s">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172" s="2">
-        <v>4001956211218</v>
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
       </c>
       <c r="C172" s="2">
         <v>4001956211218</v>
       </c>
       <c r="D172" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -5514,25 +4491,19 @@
       <c r="F172">
         <v>119</v>
       </c>
-      <c r="G172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
-        <v>4002334113001</v>
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
       </c>
       <c r="C173" s="2">
         <v>4002334113001</v>
       </c>
       <c r="D173" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -5540,25 +4511,19 @@
       <c r="F173">
         <v>99</v>
       </c>
-      <c r="G173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" s="2">
-        <v>4002334113032</v>
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
       </c>
       <c r="C174" s="2">
         <v>4002334113032</v>
       </c>
       <c r="D174" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -5566,25 +4531,19 @@
       <c r="F174">
         <v>99</v>
       </c>
-      <c r="G174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>171</v>
-      </c>
-      <c r="B175" s="2">
-        <v>4002334113025</v>
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>172</v>
       </c>
       <c r="C175" s="2">
         <v>4002334113025</v>
       </c>
       <c r="D175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
@@ -5592,25 +4551,19 @@
       <c r="F175">
         <v>99</v>
       </c>
-      <c r="G175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>179</v>
-      </c>
-      <c r="B176" s="2">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" s="2">
         <v>4005817254499</v>
       </c>
-      <c r="C176" s="2">
-        <v>4012414972299</v>
-      </c>
       <c r="D176" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
@@ -5618,25 +4571,19 @@
       <c r="F176">
         <v>199</v>
       </c>
-      <c r="G176" t="s">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>179</v>
-      </c>
-      <c r="B177" s="2">
-        <v>4105250022003</v>
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
       </c>
       <c r="C177" s="2">
         <v>4105250022003</v>
       </c>
       <c r="D177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -5644,25 +4591,19 @@
       <c r="F177">
         <v>99</v>
       </c>
-      <c r="G177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" s="2">
-        <v>4311501017869</v>
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
       </c>
       <c r="C178" s="2">
         <v>4311501017869</v>
       </c>
       <c r="D178" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -5670,25 +4611,19 @@
       <c r="F178">
         <v>199</v>
       </c>
-      <c r="G178" t="s">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179" s="2">
-        <v>4311596447510</v>
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
       </c>
       <c r="C179" s="2">
         <v>4311596447510</v>
       </c>
       <c r="D179" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -5696,25 +4631,19 @@
       <c r="F179">
         <v>396</v>
       </c>
-      <c r="G179" t="s">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="2">
-        <v>4311501045794</v>
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
       </c>
       <c r="C180" s="2">
         <v>4311501045794</v>
       </c>
       <c r="D180" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -5722,25 +4651,19 @@
       <c r="F180">
         <v>189</v>
       </c>
-      <c r="G180" t="s">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2">
-        <v>4076300001524</v>
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
       </c>
       <c r="C181" s="2">
         <v>4076300001524</v>
       </c>
       <c r="D181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -5748,25 +4671,19 @@
       <c r="F181">
         <v>89</v>
       </c>
-      <c r="G181" t="s">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" s="2">
-        <v>4311596451135</v>
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
       </c>
       <c r="C182" s="2">
         <v>4311596451135</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
@@ -5774,19 +4691,13 @@
       <c r="F182">
         <v>299</v>
       </c>
-      <c r="G182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>179</v>
-      </c>
-      <c r="B183" s="2">
-        <v>2005</v>
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
       </c>
       <c r="C183" s="2">
         <v>2005</v>
@@ -5800,25 +4711,19 @@
       <c r="F183">
         <v>58</v>
       </c>
-      <c r="G183" t="s">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>179</v>
-      </c>
-      <c r="B184" s="2">
-        <v>4014400400007</v>
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>180</v>
       </c>
       <c r="C184" s="2">
         <v>4014400400007</v>
       </c>
       <c r="D184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -5826,25 +4731,19 @@
       <c r="F184">
         <v>99</v>
       </c>
-      <c r="G184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185" s="2">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="2">
         <v>8717629130279</v>
       </c>
-      <c r="C185" s="2">
-        <v>4005659952553</v>
-      </c>
       <c r="D185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -5852,25 +4751,19 @@
       <c r="F185" s="1">
         <v>1699</v>
       </c>
-      <c r="G185" t="s">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" s="2">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="2">
         <v>8717629230238</v>
       </c>
-      <c r="C186" s="2">
-        <v>4005659952256</v>
-      </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -5878,22 +4771,16 @@
       <c r="F186" s="1">
         <v>1299</v>
       </c>
-      <c r="G186" t="s">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H186">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>189</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="2">
-        <v>21</v>
       </c>
       <c r="D187" t="s">
         <v>25</v>
@@ -5904,48 +4791,36 @@
       <c r="F187" s="1">
         <v>4815</v>
       </c>
-      <c r="G187" t="s">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H187">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="2">
-        <v>70</v>
-      </c>
       <c r="D188" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F188">
         <v>139</v>
       </c>
-      <c r="G188" t="s">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>193</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2">
-        <v>21</v>
       </c>
       <c r="D189" t="s">
         <v>25</v>
@@ -5956,25 +4831,19 @@
       <c r="F189" s="1">
         <v>1001</v>
       </c>
-      <c r="G189" t="s">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>194</v>
-      </c>
-      <c r="B190" s="2">
-        <v>4001432019239</v>
+        <v>70</v>
+      </c>
+      <c r="B190" t="s">
+        <v>195</v>
       </c>
       <c r="C190" s="2">
         <v>4001432019239</v>
       </c>
       <c r="D190" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -5982,25 +4851,19 @@
       <c r="F190">
         <v>429</v>
       </c>
-      <c r="G190" t="s">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" s="2">
-        <v>3261080112503</v>
+        <v>70</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
       </c>
       <c r="C191" s="2">
         <v>3261080112503</v>
       </c>
       <c r="D191" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -6008,25 +4871,19 @@
       <c r="F191" s="1">
         <v>1198</v>
       </c>
-      <c r="G191" t="s">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" s="2">
-        <v>15915</v>
+        <v>70</v>
+      </c>
+      <c r="B192" t="s">
+        <v>198</v>
       </c>
       <c r="C192" s="2">
         <v>15915</v>
       </c>
       <c r="D192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -6034,25 +4891,19 @@
       <c r="F192">
         <v>135</v>
       </c>
-      <c r="G192" t="s">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>197</v>
-      </c>
-      <c r="B193" s="2">
+        <v>70</v>
+      </c>
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" s="2">
         <v>8717399671194</v>
       </c>
-      <c r="C193" s="2">
-        <v>7443005490217</v>
-      </c>
       <c r="D193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -6060,25 +4911,19 @@
       <c r="F193">
         <v>249</v>
       </c>
-      <c r="G193" t="s">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194" s="2">
-        <v>2002</v>
+        <v>70</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
       </c>
       <c r="C194" s="2">
         <v>2002</v>
       </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -6086,25 +4931,19 @@
       <c r="F194">
         <v>90</v>
       </c>
-      <c r="G194" t="s">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>197</v>
-      </c>
-      <c r="B195" s="2">
+        <v>70</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" s="2">
         <v>35245</v>
       </c>
-      <c r="C195" s="2">
-        <v>2207650000000</v>
-      </c>
       <c r="D195" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -6112,25 +4951,19 @@
       <c r="F195">
         <v>139</v>
       </c>
-      <c r="G195" t="s">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>197</v>
-      </c>
-      <c r="B196" s="2">
-        <v>42189</v>
+        <v>70</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
       </c>
       <c r="C196" s="2">
         <v>42189</v>
       </c>
       <c r="D196" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E196" t="s">
         <v>15</v>
@@ -6138,25 +4971,19 @@
       <c r="F196">
         <v>50</v>
       </c>
-      <c r="G196" t="s">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" s="2">
-        <v>42186</v>
+        <v>70</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
       </c>
       <c r="C197" s="2">
         <v>42186</v>
       </c>
       <c r="D197" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -6164,25 +4991,19 @@
       <c r="F197">
         <v>100</v>
       </c>
-      <c r="G197" t="s">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" s="2">
-        <v>2120</v>
+        <v>70</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
       </c>
       <c r="C198" s="2">
         <v>2120</v>
       </c>
       <c r="D198" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E198" t="s">
         <v>15</v>
@@ -6190,25 +5011,19 @@
       <c r="F198">
         <v>208</v>
       </c>
-      <c r="G198" t="s">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199" s="2">
-        <v>4002334111892</v>
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>204</v>
       </c>
       <c r="C199" s="2">
         <v>4002334111892</v>
       </c>
       <c r="D199" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -6216,25 +5031,19 @@
       <c r="F199">
         <v>119</v>
       </c>
-      <c r="G199" t="s">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="2">
-        <v>4005009101709</v>
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
       </c>
       <c r="C200" s="2">
         <v>4005009101709</v>
       </c>
       <c r="D200" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E200" t="s">
         <v>15</v>
@@ -6242,25 +5051,19 @@
       <c r="F200">
         <v>199</v>
       </c>
-      <c r="G200" t="s">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>203</v>
-      </c>
-      <c r="B201" s="2">
-        <v>4008452043336</v>
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
       </c>
       <c r="C201" s="2">
         <v>4008452043336</v>
       </c>
       <c r="D201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -6268,15 +5071,9 @@
       <c r="F201">
         <v>45</v>
       </c>
-      <c r="G201" t="s">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H201" xr:uid="{7256B7F1-E035-4C64-88DD-9CFF6C9F643B}"/>
+  <autoFilter ref="A1:F201" xr:uid="{7256B7F1-E035-4C64-88DD-9CFF6C9F643B}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>